--- a/risultato/FASCIA A - BIANCA-BIANCOGIALLA-GIALLA PERCORSO.xlsx
+++ b/risultato/FASCIA A - BIANCA-BIANCOGIALLA-GIALLA PERCORSO.xlsx
@@ -571,21 +571,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE CASTELFRANCO</t>
+          <t>ASD KI KAI DOJO CARBONERA</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>TENAN</t>
+          <t>ZARATTINI</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>SOFIA</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -598,21 +598,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>ASD KI KAI DOJO CARBONERA</t>
+          <t>SCUOLA KARATE CASTELFRANCO</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>ZARATTINI</t>
+          <t>TENAN</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>SOFIA</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
